--- a/data/deardata.xlsx
+++ b/data/deardata.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Cycling_data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cycling_data!$J$1:$J$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cycling_data!$P$2:$P$141</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="390">
   <si>
     <t>roundtrip</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Race Course Road</t>
   </si>
   <si>
-    <t>Golf Course</t>
-  </si>
-  <si>
     <t>Mission Road</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>Long Distance PR</t>
   </si>
   <si>
-    <t>Airport CCD, Airlines Hotel</t>
-  </si>
-  <si>
     <t>New Route Discovered</t>
   </si>
   <si>
@@ -1008,6 +1002,201 @@
   </si>
   <si>
     <t>Back from the laboratory</t>
+  </si>
+  <si>
+    <t>Back to the track ✌</t>
+  </si>
+  <si>
+    <t>Morning Ride</t>
+  </si>
+  <si>
+    <t>Morning ride </t>
+  </si>
+  <si>
+    <t>Sunday morning ride</t>
+  </si>
+  <si>
+    <t>Morning office ride #commute</t>
+  </si>
+  <si>
+    <t>Sunday morning ride - missed 50</t>
+  </si>
+  <si>
+    <t>Evening traffic ride</t>
+  </si>
+  <si>
+    <t>Morning office ride - glitch in matrix</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>18/05/2016</t>
+  </si>
+  <si>
+    <t>15/05/2016</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>27/04/2016</t>
+  </si>
+  <si>
+    <t>24/04/2016</t>
+  </si>
+  <si>
+    <t>21/04/2016</t>
+  </si>
+  <si>
+    <t>19/04/2016</t>
+  </si>
+  <si>
+    <t>1:41</t>
+  </si>
+  <si>
+    <t>0:31</t>
+  </si>
+  <si>
+    <t>0:24</t>
+  </si>
+  <si>
+    <t>MIssion Road</t>
+  </si>
+  <si>
+    <t>New PR - office ride</t>
+  </si>
+  <si>
+    <t>Airlines hotel ride</t>
+  </si>
+  <si>
+    <t>Traffic maze</t>
+  </si>
+  <si>
+    <t>Evening Office Ride</t>
+  </si>
+  <si>
+    <t>Sunday morning casual ride</t>
+  </si>
+  <si>
+    <t>Centurion 2.0</t>
+  </si>
+  <si>
+    <t>Journey to the lab</t>
+  </si>
+  <si>
+    <t>Evening Rain ride</t>
+  </si>
+  <si>
+    <t>1:30</t>
+  </si>
+  <si>
+    <t>1:26</t>
+  </si>
+  <si>
+    <t>4:42</t>
+  </si>
+  <si>
+    <t>1:27</t>
+  </si>
+  <si>
+    <t>0:29</t>
+  </si>
+  <si>
+    <t>17/04/2016</t>
+  </si>
+  <si>
+    <t>13/04/2016</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>28/03/2016</t>
+  </si>
+  <si>
+    <t>27/03/2016</t>
+  </si>
+  <si>
+    <t>22/03/2016</t>
+  </si>
+  <si>
+    <t>19/03/2016</t>
+  </si>
+  <si>
+    <t>15/03/2016</t>
+  </si>
+  <si>
+    <t>13/03/2016</t>
+  </si>
+  <si>
+    <t>Golf Course Junction</t>
+  </si>
+  <si>
+    <t>Vidhan Soudha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR Cycles </t>
+  </si>
+  <si>
+    <t>phone dies at pitstop - Indian Coffee House</t>
+  </si>
+  <si>
+    <t>4(1g,2sil,1bro)</t>
+  </si>
+  <si>
+    <t>6(2g,4bro)</t>
+  </si>
+  <si>
+    <t>1 sil</t>
+  </si>
+  <si>
+    <t>28(23g,3sil,3bro)</t>
+  </si>
+  <si>
+    <t>7(6g,1sil) || 2 attt</t>
+  </si>
+  <si>
+    <t>6(3g,3sil) || 1 attt</t>
+  </si>
+  <si>
+    <t>11(5g,4sil,2bro) || 1 attt, still</t>
+  </si>
+  <si>
+    <t>7(3g,1sil,3bro) || 2 attt</t>
+  </si>
+  <si>
+    <t>9(3g,3sil,3bro) || 1 attt, still</t>
+  </si>
+  <si>
+    <t>Missed 50, as forgot to switch on Strava after Indian Coffee House, starts back in Basavanagudi</t>
+  </si>
+  <si>
+    <t>Cubbon Park</t>
+  </si>
+  <si>
+    <t>Passport document fetch</t>
+  </si>
+  <si>
+    <t>Airport CCD, Airlines Hotel, Indian Paratha Company</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1141,7 +1330,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1173,8 +1362,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1203,7 +1390,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1254,7 +1441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,6 +1452,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2456,11 +2658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U123"/>
+  <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2469,83 +2670,83 @@
     <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" customWidth="1"/>
     <col min="15" max="15" width="7.83203125" customWidth="1"/>
     <col min="16" max="16" width="24.83203125" customWidth="1"/>
     <col min="17" max="17" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="P1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>191</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>49</v>
@@ -2553,29 +2754,29 @@
       <c r="E2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="I2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="11">
         <v>74.319999999999993</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="21">
         <v>21.335885167464113</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="35">
         <v>605</v>
       </c>
-      <c r="M2" s="27" t="s">
-        <v>280</v>
+      <c r="M2" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>3</v>
@@ -2586,19 +2787,19 @@
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
@@ -2606,29 +2807,29 @@
       <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="I3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="11">
         <v>104.11</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="21">
         <v>21.765156794425089</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="35">
         <v>789</v>
       </c>
-      <c r="M3" s="28" t="s">
-        <v>297</v>
+      <c r="M3" s="26" t="s">
+        <v>295</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>3</v>
@@ -2639,19 +2840,19 @@
       <c r="P3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
@@ -2659,29 +2860,29 @@
       <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="13">
+      <c r="I4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="11">
         <v>74.08</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <v>21.895566502463055</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="35">
         <v>571</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>298</v>
+      <c r="M4" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>3</v>
@@ -2692,19 +2893,19 @@
       <c r="P4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -2712,29 +2913,29 @@
       <c r="E5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="I5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="11">
         <v>45.73</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <v>18.051315789473684</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="35">
         <v>383</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>299</v>
+      <c r="M5" s="27" t="s">
+        <v>297</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>3</v>
@@ -2745,19 +2946,19 @@
       <c r="P5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="33" t="s">
-        <v>62</v>
+      <c r="Q5" s="31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
@@ -2765,29 +2966,29 @@
       <c r="E6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="13">
+        <v>57</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="11">
         <v>13.65</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="21">
         <v>17.804347826086957</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="35">
         <v>140</v>
       </c>
-      <c r="M6" s="29" t="s">
-        <v>279</v>
+      <c r="M6" s="27" t="s">
+        <v>277</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>3</v>
@@ -2798,19 +2999,19 @@
       <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="33" t="s">
-        <v>69</v>
+      <c r="Q6" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
@@ -2818,29 +3019,29 @@
       <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="13">
+        <v>57</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="11">
         <v>11.18</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="21">
         <v>17.652631578947368</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="35">
         <v>118</v>
       </c>
-      <c r="M7" s="29" t="s">
-        <v>277</v>
+      <c r="M7" s="27" t="s">
+        <v>275</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>3</v>
@@ -2851,16 +3052,16 @@
       <c r="P7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="33" t="s">
-        <v>69</v>
+      <c r="Q7" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>6</v>
@@ -2871,28 +3072,28 @@
       <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="I8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="11">
         <v>37.39</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <v>19.507826086956523</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="35">
         <v>385</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="27">
         <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -2904,16 +3105,16 @@
       <c r="P8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="33" t="s">
-        <v>307</v>
+      <c r="Q8" s="31" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -2924,29 +3125,29 @@
       <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="I9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="11">
         <v>39.61</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="21">
         <v>20.666086956521742</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="35">
         <v>422</v>
       </c>
-      <c r="M9" s="29" t="s">
-        <v>300</v>
+      <c r="M9" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -2955,16 +3156,16 @@
       <c r="P9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="33" t="s">
+      <c r="Q9" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>9</v>
@@ -2975,28 +3176,28 @@
       <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="I10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="11">
         <v>40</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="21">
         <v>25.263157894736839</v>
       </c>
-      <c r="L10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="29">
+      <c r="L10" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="27">
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -3008,16 +3209,16 @@
       <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="33" t="s">
+      <c r="Q10" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>11</v>
@@ -3028,29 +3229,29 @@
       <c r="E11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="I11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="11">
         <v>96.64</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="21">
         <v>20.708571428571428</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="35">
         <v>740</v>
       </c>
-      <c r="M11" s="29" t="s">
-        <v>301</v>
+      <c r="M11" s="27" t="s">
+        <v>299</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
@@ -3061,19 +3262,19 @@
       <c r="P11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="33" t="s">
-        <v>308</v>
+      <c r="Q11" s="31" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
@@ -3081,29 +3282,29 @@
       <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="I12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="11">
         <v>32.33</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="21">
         <v>24.554430379746833</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="35">
         <v>321</v>
       </c>
-      <c r="M12" s="29" t="s">
-        <v>302</v>
+      <c r="M12" s="27" t="s">
+        <v>300</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
@@ -3114,16 +3315,16 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>9</v>
@@ -3134,96 +3335,98 @@
       <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>320</v>
+      <c r="F13" s="24" t="s">
+        <v>318</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="I13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="11">
         <v>36.409999999999997</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="21">
         <v>22.756249999999998</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="35">
         <v>359</v>
       </c>
-      <c r="M13" s="29" t="s">
-        <v>303</v>
+      <c r="M13" s="27" t="s">
+        <v>301</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="6">
         <v>3</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="P13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="22">
+      <c r="F14" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="20">
         <v>47.05</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="38">
         <v>21.386363636363633</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="37">
         <v>489</v>
       </c>
-      <c r="M14" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="20">
-        <v>3</v>
-      </c>
-      <c r="P14" s="18" t="s">
+      <c r="M14" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="18">
+        <v>3</v>
+      </c>
+      <c r="P14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="36" t="s">
+      <c r="Q14" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>14</v>
@@ -3234,29 +3437,29 @@
       <c r="E15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>321</v>
+      <c r="F15" s="24" t="s">
+        <v>319</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="I15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="11">
         <v>54.95</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="21">
         <v>22.428571428571427</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="35">
         <v>698</v>
       </c>
-      <c r="M15" s="29" t="s">
-        <v>278</v>
+      <c r="M15" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
@@ -3267,19 +3470,19 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="33" t="s">
+      <c r="Q15" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
@@ -3287,29 +3490,29 @@
       <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="13">
+      <c r="I16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="11">
         <v>38.99</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="21">
         <v>22.935294117647061</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="35">
         <v>398</v>
       </c>
-      <c r="M16" s="29" t="s">
-        <v>305</v>
+      <c r="M16" s="27" t="s">
+        <v>303</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3523,19 @@
       <c r="P16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="33" t="s">
-        <v>309</v>
+      <c r="Q16" s="31" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>29</v>
@@ -3340,29 +3543,29 @@
       <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" s="13">
+        <v>57</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="11">
         <v>26.56</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="21">
         <v>22.133333333333333</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="35">
         <v>236</v>
       </c>
-      <c r="M17" s="29" t="s">
-        <v>278</v>
+      <c r="M17" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -3373,19 +3576,19 @@
       <c r="P17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="33" t="s">
-        <v>75</v>
+      <c r="Q17" s="31" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
@@ -3393,29 +3596,29 @@
       <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J18" s="13">
+        <v>57</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="11">
         <v>11.62</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="21">
         <v>15.493333333333332</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="35">
         <v>79</v>
       </c>
-      <c r="M18" s="29" t="s">
-        <v>306</v>
+      <c r="M18" s="27" t="s">
+        <v>304</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -3426,19 +3629,19 @@
       <c r="P18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" s="33" t="s">
-        <v>62</v>
+      <c r="Q18" s="31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>30</v>
@@ -3446,28 +3649,28 @@
       <c r="E19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J19" s="13">
+        <v>57</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="11">
         <v>13.05</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="21">
         <v>18.642857142857146</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="35">
         <v>92</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="27">
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -3479,16 +3682,16 @@
       <c r="P19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>17</v>
@@ -3499,28 +3702,28 @@
       <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="13">
+        <v>57</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="11">
         <v>11.9</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="21">
         <v>18.789473684210527</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="35">
         <v>78</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="27">
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -3532,16 +3735,16 @@
       <c r="P20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>16</v>
@@ -3552,28 +3755,28 @@
       <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="J21" s="13">
+        <v>57</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" s="11">
         <v>12.9</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="21">
         <v>16.125</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="35">
         <v>102</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="27">
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -3585,16 +3788,16 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>17</v>
@@ -3605,28 +3808,28 @@
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" s="13">
+        <v>57</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="11">
         <v>11.57</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="21">
         <v>18.762162162162163</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="35">
         <v>82</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="27">
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -3638,16 +3841,16 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="33" t="s">
+      <c r="Q22" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>16</v>
@@ -3658,28 +3861,28 @@
       <c r="E23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="13">
+        <v>57</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" s="11">
         <v>15.24</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="21">
         <v>17.584615384615383</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="35">
         <v>103</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="27">
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -3691,16 +3894,16 @@
       <c r="P23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="33" t="s">
+      <c r="Q23" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>17</v>
@@ -3711,28 +3914,28 @@
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J24" s="13">
+        <v>57</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="11">
         <v>11.74</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="21">
         <v>19.037837837837838</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="35">
         <v>84</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="27">
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -3744,16 +3947,16 @@
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="33" t="s">
+      <c r="Q24" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>18</v>
@@ -3764,28 +3967,28 @@
       <c r="E25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>324</v>
-      </c>
       <c r="H25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="13">
+      <c r="I25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="11">
         <v>45.64</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="21">
         <v>23.606896551724137</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="35">
         <v>378</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="27">
         <v>0</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -3797,16 +4000,16 @@
       <c r="P25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q25" s="33" t="s">
+      <c r="Q25" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>19</v>
@@ -3817,28 +4020,28 @@
       <c r="E26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J26" s="13">
+      <c r="I26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="11">
         <v>10.51</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="21">
         <v>18.547058823529412</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="35">
         <v>70</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="27">
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -3850,19 +4053,19 @@
       <c r="P26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="33" t="s">
+      <c r="Q26" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>29</v>
@@ -3870,29 +4073,29 @@
       <c r="E27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="I27" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="11">
         <v>40.39</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="21">
         <v>21.83243243243243</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="35">
         <v>209</v>
       </c>
-      <c r="M27" s="29" t="s">
-        <v>276</v>
+      <c r="M27" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -3903,16 +4106,16 @@
       <c r="P27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q27" s="33" t="s">
+      <c r="Q27" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>21</v>
@@ -3923,28 +4126,28 @@
       <c r="E28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28" s="13">
+        <v>57</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="11">
         <v>14.83</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="21">
         <v>19.773333333333333</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="35">
         <v>81</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="27">
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
@@ -3956,16 +4159,16 @@
       <c r="P28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q28" s="33" t="s">
+      <c r="Q28" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>23</v>
@@ -3976,28 +4179,28 @@
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J29" s="13">
+        <v>57</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="11">
         <v>12.85</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="21">
         <v>19.769230769230766</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="35">
         <v>71</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M29" s="27">
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -4009,16 +4212,16 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="33" t="s">
+      <c r="Q29" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>19</v>
@@ -4029,28 +4232,28 @@
       <c r="E30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J30" s="13">
+      <c r="I30" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="11">
         <v>14.42</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="21">
         <v>19.663636363636364</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="35">
         <v>87</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="27">
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -4062,19 +4265,19 @@
       <c r="P30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="33" t="s">
+      <c r="Q30" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>29</v>
@@ -4082,28 +4285,28 @@
       <c r="E31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="J31" s="13">
+      <c r="I31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="11">
         <v>50.21</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="21">
         <v>25.530508474576269</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="35">
         <v>291</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="27">
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -4115,19 +4318,19 @@
       <c r="P31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q31" s="34" t="s">
+      <c r="Q31" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>30</v>
@@ -4135,28 +4338,28 @@
       <c r="E32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32" s="13">
+        <v>57</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J32" s="11">
         <v>15.15</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="21">
         <v>20.2</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="35">
         <v>78</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="27">
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -4168,16 +4371,16 @@
       <c r="P32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="33" t="s">
-        <v>310</v>
+      <c r="Q32" s="31" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>23</v>
@@ -4188,29 +4391,29 @@
       <c r="E33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="J33" s="13">
+        <v>57</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33" s="11">
         <v>12.67</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="21">
         <v>21.72</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="35">
         <v>71</v>
       </c>
-      <c r="M33" s="29" t="s">
-        <v>277</v>
+      <c r="M33" s="27" t="s">
+        <v>275</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -4221,19 +4424,19 @@
       <c r="P33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="33" t="s">
+      <c r="Q33" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>29</v>
@@ -4241,28 +4444,28 @@
       <c r="E34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="J34" s="13">
+      <c r="I34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J34" s="11">
         <v>9.49</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="21">
         <v>20.335714285714285</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="35">
         <v>69</v>
       </c>
-      <c r="M34" s="29">
+      <c r="M34" s="27">
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -4274,19 +4477,19 @@
       <c r="P34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q34" s="33" t="s">
+      <c r="Q34" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>29</v>
@@ -4294,28 +4497,28 @@
       <c r="E35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="J35" s="13">
+      <c r="I35" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J35" s="11">
         <v>33.799999999999997</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="21">
         <v>21.574468085106382</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="35">
         <v>180</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="27">
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -4327,16 +4530,16 @@
       <c r="P35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q35" s="34" t="s">
+      <c r="Q35" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>26</v>
@@ -4347,28 +4550,28 @@
       <c r="E36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" s="13">
+        <v>57</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J36" s="11">
         <v>12</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="21">
         <v>24</v>
       </c>
-      <c r="L36" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="M36" s="29">
+      <c r="L36" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="27">
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -4380,16 +4583,16 @@
       <c r="P36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q36" s="33" t="s">
+      <c r="Q36" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>17</v>
@@ -4400,28 +4603,28 @@
       <c r="E37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="J37" s="13">
+        <v>57</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J37" s="11">
         <v>12.31</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="21">
         <v>18.465000000000003</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="35">
         <v>70</v>
       </c>
-      <c r="M37" s="29">
+      <c r="M37" s="27">
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -4433,16 +4636,16 @@
       <c r="P37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q37" s="33" t="s">
+      <c r="Q37" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>7</v>
@@ -4453,29 +4656,29 @@
       <c r="E38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="J38" s="13">
+      <c r="I38" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" s="11">
         <v>50.82</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="21">
         <v>21.028965517241382</v>
       </c>
-      <c r="L38" s="37">
+      <c r="L38" s="35">
         <v>285</v>
       </c>
-      <c r="M38" s="29" t="s">
-        <v>278</v>
+      <c r="M38" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>3</v>
@@ -4486,16 +4689,16 @@
       <c r="P38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="33" t="s">
+      <c r="Q38" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>26</v>
@@ -4506,29 +4709,29 @@
       <c r="E39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J39" s="13">
+        <v>57</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="11">
         <v>13.44</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="21">
         <v>18.327272727272728</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="35">
         <v>77</v>
       </c>
-      <c r="M39" s="29" t="s">
-        <v>279</v>
+      <c r="M39" s="27" t="s">
+        <v>277</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>3</v>
@@ -4539,16 +4742,16 @@
       <c r="P39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q39" s="33" t="s">
+      <c r="Q39" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>27</v>
@@ -4559,29 +4762,29 @@
       <c r="E40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="13">
+        <v>57</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40" s="11">
         <v>11.94</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="21">
         <v>18.852631578947367</v>
       </c>
-      <c r="L40" s="37">
+      <c r="L40" s="35">
         <v>70</v>
       </c>
-      <c r="M40" s="29" t="s">
-        <v>278</v>
+      <c r="M40" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>3</v>
@@ -4592,19 +4795,19 @@
       <c r="P40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q40" s="33" t="s">
+      <c r="Q40" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>30</v>
@@ -4612,29 +4815,29 @@
       <c r="E41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="13">
+        <v>57</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J41" s="11">
         <v>12.43</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="21">
         <v>20.156756756756756</v>
       </c>
-      <c r="L41" s="37">
+      <c r="L41" s="35">
         <v>72</v>
       </c>
-      <c r="M41" s="29" t="s">
-        <v>278</v>
+      <c r="M41" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -4645,19 +4848,19 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="33" t="s">
+      <c r="Q41" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>29</v>
@@ -4665,28 +4868,28 @@
       <c r="E42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="J42" s="13">
+        <v>57</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="11">
         <v>7</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="21">
         <v>21</v>
       </c>
-      <c r="L42" s="37">
-        <v>0</v>
-      </c>
-      <c r="M42" s="29">
+      <c r="L42" s="35">
+        <v>0</v>
+      </c>
+      <c r="M42" s="27">
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -4698,19 +4901,19 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="33" t="s">
+      <c r="Q42" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>29</v>
@@ -4718,28 +4921,28 @@
       <c r="E43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="J43" s="13">
+        <v>57</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J43" s="11">
         <v>6.88</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="21">
         <v>27.52</v>
       </c>
-      <c r="L43" s="37">
-        <v>0</v>
-      </c>
-      <c r="M43" s="29">
+      <c r="L43" s="35">
+        <v>0</v>
+      </c>
+      <c r="M43" s="27">
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -4751,16 +4954,16 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="33" t="s">
-        <v>311</v>
+      <c r="Q43" s="31" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>28</v>
@@ -4771,29 +4974,29 @@
       <c r="E44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="J44" s="13">
+        <v>57</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J44" s="11">
         <v>13.22</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="21">
         <v>19.830000000000002</v>
       </c>
-      <c r="L44" s="37">
+      <c r="L44" s="35">
         <v>75</v>
       </c>
-      <c r="M44" s="29" t="s">
-        <v>280</v>
+      <c r="M44" s="27" t="s">
+        <v>278</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
@@ -4804,16 +5007,16 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="33" t="s">
+      <c r="Q44" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>27</v>
@@ -4824,28 +5027,28 @@
       <c r="E45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J45" s="13">
+        <v>57</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J45" s="11">
         <v>13.14</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="21">
         <v>20.215384615384615</v>
       </c>
-      <c r="L45" s="37">
+      <c r="L45" s="35">
         <v>67</v>
       </c>
-      <c r="M45" s="29">
+      <c r="M45" s="27">
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -4857,16 +5060,16 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="33" t="s">
+      <c r="Q45" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>18</v>
@@ -4875,31 +5078,31 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="F46" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="J46" s="13">
+      <c r="I46" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J46" s="11">
         <v>37.799999999999997</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="21">
         <v>22.235294117647058</v>
       </c>
-      <c r="L46" s="37">
+      <c r="L46" s="35">
         <v>203</v>
       </c>
-      <c r="M46" s="29" t="s">
-        <v>279</v>
+      <c r="M46" s="27" t="s">
+        <v>277</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
@@ -4910,19 +5113,19 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q46" s="33" t="s">
+      <c r="Q46" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>29</v>
@@ -4930,28 +5133,28 @@
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I47" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="J47" s="13">
+      <c r="I47" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="11">
         <v>40</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="21">
         <v>22.857142857142858</v>
       </c>
-      <c r="L47" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="29">
+      <c r="L47" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="27">
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -4963,16 +5166,16 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="34" t="s">
-        <v>311</v>
+      <c r="Q47" s="32" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>16</v>
@@ -4983,28 +5186,28 @@
       <c r="E48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J48" s="13">
+        <v>57</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" s="11">
         <v>14.06</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="21">
         <v>19.172727272727276</v>
       </c>
-      <c r="L48" s="37">
+      <c r="L48" s="35">
         <v>77</v>
       </c>
-      <c r="M48" s="29">
+      <c r="M48" s="27">
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -5016,16 +5219,16 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="33" t="s">
+      <c r="Q48" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>17</v>
@@ -5036,29 +5239,29 @@
       <c r="E49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="J49" s="13">
+        <v>57</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J49" s="11">
         <v>12.32</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="21">
         <v>18.48</v>
       </c>
-      <c r="L49" s="37">
+      <c r="L49" s="35">
         <v>71</v>
       </c>
-      <c r="M49" s="29" t="s">
-        <v>277</v>
+      <c r="M49" s="27" t="s">
+        <v>275</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -5069,16 +5272,16 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="33" t="s">
+      <c r="Q49" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>16</v>
@@ -5089,28 +5292,28 @@
       <c r="E50" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="J50" s="13">
+        <v>57</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J50" s="11">
         <v>13.88</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="21">
         <v>20.31219512195122</v>
       </c>
-      <c r="L50" s="37">
+      <c r="L50" s="35">
         <v>77</v>
       </c>
-      <c r="M50" s="29">
+      <c r="M50" s="27">
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -5122,16 +5325,16 @@
       <c r="P50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q50" s="33" t="s">
+      <c r="Q50" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>17</v>
@@ -5142,28 +5345,28 @@
       <c r="E51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J51" s="13">
+        <v>57</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J51" s="11">
         <v>13.65</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="21">
         <v>19.5</v>
       </c>
-      <c r="L51" s="37">
+      <c r="L51" s="35">
         <v>67</v>
       </c>
-      <c r="M51" s="29">
+      <c r="M51" s="27">
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -5175,72 +5378,72 @@
       <c r="P51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q51" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="17" t="s">
+      <c r="Q51" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A52" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="18" t="s">
+      <c r="D52" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="J52" s="22">
+      <c r="F52" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J52" s="20">
         <v>11.33</v>
       </c>
-      <c r="K52" s="40">
+      <c r="K52" s="38">
         <v>15.809302325581395</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L52" s="37">
         <v>64</v>
       </c>
-      <c r="M52" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="N52" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="20">
+      <c r="M52" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="N52" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="18">
         <v>2</v>
       </c>
-      <c r="P52" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="36" t="s">
+      <c r="P52" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>29</v>
@@ -5248,29 +5451,29 @@
       <c r="E53" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I53" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="J53" s="13">
+      <c r="I53" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J53" s="11">
         <v>55.69</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="21">
         <v>22.128476821192052</v>
       </c>
-      <c r="L53" s="37">
+      <c r="L53" s="35">
         <v>299</v>
       </c>
-      <c r="M53" s="29" t="s">
-        <v>279</v>
+      <c r="M53" s="27" t="s">
+        <v>277</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>3</v>
@@ -5281,16 +5484,16 @@
       <c r="P53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q53" s="34" t="s">
-        <v>312</v>
+      <c r="Q53" s="32" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>21</v>
@@ -5301,28 +5504,28 @@
       <c r="E54" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="J54" s="13">
+        <v>57</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" s="11">
         <v>15.12</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="21">
         <v>18.514285714285712</v>
       </c>
-      <c r="L54" s="37">
+      <c r="L54" s="35">
         <v>82</v>
       </c>
-      <c r="M54" s="29">
+      <c r="M54" s="27">
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -5334,16 +5537,16 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="33" t="s">
+      <c r="Q54" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>27</v>
@@ -5354,28 +5557,28 @@
       <c r="E55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J55" s="13">
+        <v>57</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J55" s="11">
         <v>14.15</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="21">
         <v>18.866666666666667</v>
       </c>
-      <c r="L55" s="37">
+      <c r="L55" s="35">
         <v>67</v>
       </c>
-      <c r="M55" s="29">
+      <c r="M55" s="27">
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
@@ -5387,16 +5590,16 @@
       <c r="P55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q55" s="33" t="s">
+      <c r="Q55" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>28</v>
@@ -5407,28 +5610,28 @@
       <c r="E56" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J56" s="13">
+        <v>57</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J56" s="11">
         <v>13.64</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="21">
         <v>18.186666666666667</v>
       </c>
-      <c r="L56" s="37">
+      <c r="L56" s="35">
         <v>79</v>
       </c>
-      <c r="M56" s="29">
+      <c r="M56" s="27">
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
@@ -5440,19 +5643,19 @@
       <c r="P56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q56" s="33" t="s">
+      <c r="Q56" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>29</v>
@@ -5460,29 +5663,29 @@
       <c r="E57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="J57" s="13">
+        <v>57</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J57" s="11">
         <v>13.51</v>
       </c>
-      <c r="K57" s="23">
+      <c r="K57" s="21">
         <v>15.894117647058824</v>
       </c>
-      <c r="L57" s="37">
+      <c r="L57" s="35">
         <v>75</v>
       </c>
-      <c r="M57" s="29" t="s">
-        <v>278</v>
+      <c r="M57" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -5493,19 +5696,19 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="26" x14ac:dyDescent="0.15">
+      <c r="Q57" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>29</v>
@@ -5513,29 +5716,29 @@
       <c r="E58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="J58" s="13">
+        <v>57</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="11">
         <v>5.95</v>
       </c>
-      <c r="K58" s="23">
+      <c r="K58" s="21">
         <v>22.3125</v>
       </c>
-      <c r="L58" s="37">
+      <c r="L58" s="35">
         <v>36</v>
       </c>
-      <c r="M58" s="29" t="s">
-        <v>282</v>
+      <c r="M58" s="27" t="s">
+        <v>280</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -5546,16 +5749,16 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="33" t="s">
+      <c r="Q58" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>16</v>
@@ -5566,28 +5769,28 @@
       <c r="E59" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J59" s="13">
+        <v>57</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J59" s="11">
         <v>11.74</v>
       </c>
-      <c r="K59" s="23">
+      <c r="K59" s="21">
         <v>16.009090909090911</v>
       </c>
-      <c r="L59" s="37">
+      <c r="L59" s="35">
         <v>73</v>
       </c>
-      <c r="M59" s="29">
+      <c r="M59" s="27">
         <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -5599,19 +5802,19 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="33" t="s">
+      <c r="Q59" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>29</v>
@@ -5619,28 +5822,28 @@
       <c r="E60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="J60" s="13">
+        <v>57</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J60" s="11">
         <v>10.199999999999999</v>
       </c>
-      <c r="K60" s="23">
+      <c r="K60" s="21">
         <v>18.545454545454543</v>
       </c>
-      <c r="L60" s="37">
+      <c r="L60" s="35">
         <v>45</v>
       </c>
-      <c r="M60" s="29">
+      <c r="M60" s="27">
         <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
@@ -5652,16 +5855,16 @@
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q60" s="33" t="s">
+      <c r="Q60" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>34</v>
@@ -5672,28 +5875,28 @@
       <c r="E61" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I61" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J61" s="13">
+      <c r="I61" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J61" s="11">
         <v>51</v>
       </c>
-      <c r="K61" s="23">
+      <c r="K61" s="21">
         <v>23.53846153846154</v>
       </c>
-      <c r="L61" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="M61" s="29">
+      <c r="L61" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M61" s="27">
         <v>0</v>
       </c>
       <c r="N61" s="3" t="s">
@@ -5705,19 +5908,19 @@
       <c r="P61" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q61" s="33" t="s">
+      <c r="Q61" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>30</v>
@@ -5725,28 +5928,28 @@
       <c r="E62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J62" s="13">
+        <v>57</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J62" s="11">
         <v>12.07</v>
       </c>
-      <c r="K62" s="23">
+      <c r="K62" s="21">
         <v>15.408510638297873</v>
       </c>
-      <c r="L62" s="37">
+      <c r="L62" s="35">
         <v>79</v>
       </c>
-      <c r="M62" s="29">
+      <c r="M62" s="27">
         <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
@@ -5758,16 +5961,16 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="33" t="s">
+      <c r="Q62" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>17</v>
@@ -5778,28 +5981,28 @@
       <c r="E63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="J63" s="13">
+        <v>57</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J63" s="11">
         <v>10.08</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="21">
         <v>16.8</v>
       </c>
-      <c r="L63" s="37">
+      <c r="L63" s="35">
         <v>45</v>
       </c>
-      <c r="M63" s="29">
+      <c r="M63" s="27">
         <v>0</v>
       </c>
       <c r="N63" s="3" t="s">
@@ -5811,16 +6014,16 @@
       <c r="P63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q63" s="33" t="s">
+      <c r="Q63" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>36</v>
@@ -5831,29 +6034,29 @@
       <c r="E64" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I64" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="J64" s="13">
+      <c r="I64" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J64" s="11">
         <v>104.21</v>
       </c>
-      <c r="K64" s="23">
+      <c r="K64" s="21">
         <v>24.234883720930231</v>
       </c>
-      <c r="L64" s="37">
+      <c r="L64" s="35">
         <v>646</v>
       </c>
-      <c r="M64" s="29" t="s">
-        <v>283</v>
+      <c r="M64" s="27" t="s">
+        <v>281</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>3</v>
@@ -5864,19 +6067,19 @@
       <c r="P64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q64" s="34" t="s">
-        <v>313</v>
+      <c r="Q64" s="32" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>29</v>
@@ -5884,29 +6087,29 @@
       <c r="E65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J65" s="13">
+      <c r="I65" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J65" s="11">
         <v>51.57</v>
       </c>
-      <c r="K65" s="23">
+      <c r="K65" s="21">
         <v>22.751470588235296</v>
       </c>
-      <c r="L65" s="37">
+      <c r="L65" s="35">
         <v>299</v>
       </c>
-      <c r="M65" s="29" t="s">
-        <v>284</v>
+      <c r="M65" s="27" t="s">
+        <v>282</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>3</v>
@@ -5917,72 +6120,72 @@
       <c r="P65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q65" s="33" t="s">
+      <c r="Q65" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A66" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="F66" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="J66" s="22">
+      <c r="A66" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J66" s="20">
         <v>115.36</v>
       </c>
-      <c r="K66" s="40">
+      <c r="K66" s="38">
         <v>23.704109589041092</v>
       </c>
-      <c r="L66" s="39">
+      <c r="L66" s="37">
         <v>754</v>
       </c>
-      <c r="M66" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="N66" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="20">
-        <v>3</v>
-      </c>
-      <c r="P66" s="18" t="s">
+      <c r="M66" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="N66" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="18">
+        <v>3</v>
+      </c>
+      <c r="P66" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="35" t="s">
-        <v>314</v>
+      <c r="Q66" s="33" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>29</v>
@@ -5990,29 +6193,29 @@
       <c r="E67" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I67" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="J67" s="13">
+      <c r="I67" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J67" s="11">
         <v>35.78</v>
       </c>
-      <c r="K67" s="23">
+      <c r="K67" s="21">
         <v>20.445714285714285</v>
       </c>
-      <c r="L67" s="37">
+      <c r="L67" s="35">
         <v>194</v>
       </c>
-      <c r="M67" s="29" t="s">
-        <v>286</v>
+      <c r="M67" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>3</v>
@@ -6023,16 +6226,16 @@
       <c r="P67" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q67" s="33" t="s">
-        <v>5</v>
+      <c r="Q67" s="31" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>21</v>
@@ -6043,28 +6246,28 @@
       <c r="E68" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F68" s="26" t="s">
+      <c r="F68" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J68" s="13">
+        <v>57</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J68" s="11">
         <v>11.92</v>
       </c>
-      <c r="K68" s="23">
+      <c r="K68" s="21">
         <v>15.217021276595744</v>
       </c>
-      <c r="L68" s="37">
+      <c r="L68" s="35">
         <v>77</v>
       </c>
-      <c r="M68" s="29">
+      <c r="M68" s="27">
         <v>0</v>
       </c>
       <c r="N68" s="3" t="s">
@@ -6076,16 +6279,16 @@
       <c r="P68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q68" s="33" t="s">
+      <c r="Q68" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>17</v>
@@ -6096,28 +6299,28 @@
       <c r="E69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="J69" s="13">
+        <v>57</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J69" s="11">
         <v>10.34</v>
       </c>
-      <c r="K69" s="23">
+      <c r="K69" s="21">
         <v>18.799999999999997</v>
       </c>
-      <c r="L69" s="37">
+      <c r="L69" s="35">
         <v>45</v>
       </c>
-      <c r="M69" s="29">
+      <c r="M69" s="27">
         <v>0</v>
       </c>
       <c r="N69" s="3" t="s">
@@ -6129,19 +6332,19 @@
       <c r="P69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q69" s="33" t="s">
+      <c r="Q69" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>29</v>
@@ -6149,29 +6352,29 @@
       <c r="E70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I70" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="J70" s="13">
+      <c r="I70" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J70" s="11">
         <v>101.42</v>
       </c>
-      <c r="K70" s="23">
+      <c r="K70" s="21">
         <v>24.147619047619045</v>
       </c>
-      <c r="L70" s="37">
+      <c r="L70" s="35">
         <v>648</v>
       </c>
-      <c r="M70" s="29" t="s">
-        <v>287</v>
+      <c r="M70" s="27" t="s">
+        <v>285</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>3</v>
@@ -6182,48 +6385,48 @@
       <c r="P70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q70" s="34" t="s">
+      <c r="Q70" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J71" s="13">
+      <c r="I71" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="11">
         <v>11.18</v>
       </c>
-      <c r="K71" s="23">
+      <c r="K71" s="21">
         <v>17.652631578947368</v>
       </c>
-      <c r="L71" s="37">
+      <c r="L71" s="35">
         <v>76</v>
       </c>
-      <c r="M71" s="29">
+      <c r="M71" s="27">
         <v>0</v>
       </c>
       <c r="N71" s="3" t="s">
@@ -6235,16 +6438,16 @@
       <c r="P71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q71" s="33" t="s">
+      <c r="Q71" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>17</v>
@@ -6255,28 +6458,28 @@
       <c r="E72" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J72" s="13">
+        <v>57</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J72" s="11">
         <v>11.64</v>
       </c>
-      <c r="K72" s="23">
+      <c r="K72" s="21">
         <v>16.62857142857143</v>
       </c>
-      <c r="L72" s="37">
+      <c r="L72" s="35">
         <v>45</v>
       </c>
-      <c r="M72" s="29">
+      <c r="M72" s="27">
         <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
@@ -6288,48 +6491,48 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="33" t="s">
+      <c r="Q72" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J73" s="13">
+      <c r="I73" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J73" s="11">
         <v>12.45</v>
       </c>
-      <c r="K73" s="23">
+      <c r="K73" s="21">
         <v>16.599999999999998</v>
       </c>
-      <c r="L73" s="37">
+      <c r="L73" s="35">
         <v>74</v>
       </c>
-      <c r="M73" s="29">
+      <c r="M73" s="27">
         <v>0</v>
       </c>
       <c r="N73" s="3" t="s">
@@ -6341,16 +6544,16 @@
       <c r="P73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q73" s="33" t="s">
+      <c r="Q73" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>17</v>
@@ -6361,28 +6564,28 @@
       <c r="E74" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J74" s="13">
+        <v>57</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J74" s="11">
         <v>10.62</v>
       </c>
-      <c r="K74" s="23">
+      <c r="K74" s="21">
         <v>18.741176470588233</v>
       </c>
-      <c r="L74" s="37">
+      <c r="L74" s="35">
         <v>45</v>
       </c>
-      <c r="M74" s="29">
+      <c r="M74" s="27">
         <v>0</v>
       </c>
       <c r="N74" s="3" t="s">
@@ -6394,19 +6597,19 @@
       <c r="P74" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q74" s="33" t="s">
+      <c r="Q74" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>29</v>
@@ -6414,28 +6617,28 @@
       <c r="E75" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="26" t="s">
+      <c r="F75" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="J75" s="13">
+        <v>57</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J75" s="11">
         <v>5.6</v>
       </c>
-      <c r="K75" s="23">
+      <c r="K75" s="21">
         <v>16.8</v>
       </c>
-      <c r="L75" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="M75" s="29">
+      <c r="L75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M75" s="27">
         <v>0</v>
       </c>
       <c r="N75" s="3" t="s">
@@ -6447,19 +6650,19 @@
       <c r="P75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q75" s="33" t="s">
-        <v>315</v>
+      <c r="Q75" s="31" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>41</v>
@@ -6467,29 +6670,29 @@
       <c r="E76" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="26" t="s">
+      <c r="F76" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="J76" s="13">
+        <v>57</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J76" s="11">
         <v>6.28</v>
       </c>
-      <c r="K76" s="23">
+      <c r="K76" s="21">
         <v>17.127272727272729</v>
       </c>
-      <c r="L76" s="37">
+      <c r="L76" s="35">
         <v>46</v>
       </c>
-      <c r="M76" s="29" t="s">
-        <v>279</v>
+      <c r="M76" s="27" t="s">
+        <v>277</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -6500,16 +6703,16 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="33" t="s">
-        <v>315</v>
+      <c r="Q76" s="31" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>42</v>
@@ -6520,28 +6723,28 @@
       <c r="E77" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I77" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="K77" s="23">
+      <c r="I77" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K77" s="21">
         <v>23.07692307692308</v>
       </c>
-      <c r="L77" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="M77" s="29">
+      <c r="L77" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M77" s="27">
         <v>0</v>
       </c>
       <c r="N77" s="3" t="s">
@@ -6553,48 +6756,48 @@
       <c r="P77" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q77" s="33" t="s">
+      <c r="Q77" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="J78" s="13">
+      <c r="I78" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J78" s="11">
         <v>11.71</v>
       </c>
-      <c r="K78" s="23">
+      <c r="K78" s="21">
         <v>17.136585365853659</v>
       </c>
-      <c r="L78" s="37">
+      <c r="L78" s="35">
         <v>78</v>
       </c>
-      <c r="M78" s="29">
+      <c r="M78" s="27">
         <v>0</v>
       </c>
       <c r="N78" s="3" t="s">
@@ -6606,16 +6809,16 @@
       <c r="P78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q78" s="33" t="s">
+      <c r="Q78" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>17</v>
@@ -6626,28 +6829,28 @@
       <c r="E79" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="F79" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J79" s="13">
+        <v>57</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J79" s="11">
         <v>11.13</v>
       </c>
-      <c r="K79" s="23">
+      <c r="K79" s="21">
         <v>17.123076923076923</v>
       </c>
-      <c r="L79" s="37">
+      <c r="L79" s="35">
         <v>45</v>
       </c>
-      <c r="M79" s="29">
+      <c r="M79" s="27">
         <v>0</v>
       </c>
       <c r="N79" s="3" t="s">
@@ -6659,19 +6862,19 @@
       <c r="P79" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q79" s="33" t="s">
+      <c r="Q79" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>29</v>
@@ -6679,29 +6882,29 @@
       <c r="E80" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F80" s="26" t="s">
+      <c r="F80" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I80" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="J80" s="13">
+      <c r="I80" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J80" s="11">
         <v>49.33</v>
       </c>
-      <c r="K80" s="23">
+      <c r="K80" s="21">
         <v>20.697902097902098</v>
       </c>
-      <c r="L80" s="37">
+      <c r="L80" s="35">
         <v>326</v>
       </c>
-      <c r="M80" s="29" t="s">
-        <v>288</v>
+      <c r="M80" s="27" t="s">
+        <v>286</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>3</v>
@@ -6712,72 +6915,72 @@
       <c r="P80" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q80" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E81" s="18" t="s">
+      <c r="Q80" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A81" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F81" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H81" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="J81" s="22">
+      <c r="F81" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J81" s="20">
         <v>6</v>
       </c>
-      <c r="K81" s="40">
+      <c r="K81" s="38">
         <v>22.5</v>
       </c>
-      <c r="L81" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="30">
-        <v>0</v>
-      </c>
-      <c r="N81" s="18" t="s">
+      <c r="L81" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="28">
+        <v>0</v>
+      </c>
+      <c r="N81" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O81" s="20">
+      <c r="O81" s="18">
         <v>2</v>
       </c>
-      <c r="P81" s="18" t="s">
+      <c r="P81" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Q81" s="35" t="s">
+      <c r="Q81" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>29</v>
@@ -6785,29 +6988,29 @@
       <c r="E82" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F82" s="26" t="s">
+      <c r="F82" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I82" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="J82" s="13">
+      <c r="I82" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J82" s="11">
         <v>44.77</v>
       </c>
-      <c r="K82" s="23">
+      <c r="K82" s="21">
         <v>22.385000000000002</v>
       </c>
-      <c r="L82" s="37">
+      <c r="L82" s="35">
         <v>249</v>
       </c>
-      <c r="M82" s="29" t="s">
-        <v>289</v>
+      <c r="M82" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="N82" s="3" t="s">
         <v>3</v>
@@ -6818,101 +7021,101 @@
       <c r="P82" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q82" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q82" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="J83" s="22">
+      <c r="F83" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J83" s="20">
         <v>30.25</v>
       </c>
-      <c r="K83" s="23">
+      <c r="K83" s="21">
         <v>23.26923076923077</v>
       </c>
-      <c r="L83" s="39">
+      <c r="L83" s="37">
         <v>157</v>
       </c>
-      <c r="M83" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="N83" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="20">
-        <v>3</v>
-      </c>
-      <c r="P83" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="35" t="s">
+      <c r="M83" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="N83" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="18">
+        <v>3</v>
+      </c>
+      <c r="P83" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J84" s="13">
+      <c r="I84" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J84" s="11">
         <v>10.86</v>
       </c>
-      <c r="K84" s="23">
+      <c r="K84" s="21">
         <v>17.147368421052633</v>
       </c>
-      <c r="L84" s="37">
+      <c r="L84" s="35">
         <v>82</v>
       </c>
-      <c r="M84" s="29">
+      <c r="M84" s="27">
         <v>0</v>
       </c>
       <c r="N84" s="4" t="s">
@@ -6924,48 +7127,48 @@
       <c r="P84" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q84" s="33" t="s">
+      <c r="Q84" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F85" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J85" s="13">
+      <c r="I85" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J85" s="11">
         <v>10.98</v>
       </c>
-      <c r="K85" s="23">
+      <c r="K85" s="21">
         <v>17.805405405405406</v>
       </c>
-      <c r="L85" s="37">
+      <c r="L85" s="35">
         <v>44</v>
       </c>
-      <c r="M85" s="29">
+      <c r="M85" s="27">
         <v>0</v>
       </c>
       <c r="N85" s="4" t="s">
@@ -6977,48 +7180,48 @@
       <c r="P85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q85" s="33" t="s">
+      <c r="Q85" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J86" s="13">
+      <c r="I86" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J86" s="11">
         <v>10.76</v>
       </c>
-      <c r="K86" s="23">
+      <c r="K86" s="21">
         <v>17.448648648648646</v>
       </c>
-      <c r="L86" s="37">
+      <c r="L86" s="35">
         <v>76</v>
       </c>
-      <c r="M86" s="29">
+      <c r="M86" s="27">
         <v>0</v>
       </c>
       <c r="N86" s="4" t="s">
@@ -7030,48 +7233,48 @@
       <c r="P86" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q86" s="33" t="s">
+      <c r="Q86" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F87" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J87" s="13">
+      <c r="I87" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J87" s="11">
         <v>10.71</v>
       </c>
-      <c r="K87" s="23">
+      <c r="K87" s="21">
         <v>14.944186046511629</v>
       </c>
-      <c r="L87" s="37">
+      <c r="L87" s="35">
         <v>44</v>
       </c>
-      <c r="M87" s="29">
+      <c r="M87" s="27">
         <v>0</v>
       </c>
       <c r="N87" s="4" t="s">
@@ -7083,16 +7286,16 @@
       <c r="P87" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q87" s="33" t="s">
+      <c r="Q87" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>34</v>
@@ -7101,31 +7304,31 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F88" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F88" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I88" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J88" s="13">
+      <c r="I88" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J88" s="11">
         <v>29.4</v>
       </c>
-      <c r="K88" s="23">
+      <c r="K88" s="21">
         <v>17.64</v>
       </c>
-      <c r="L88" s="37">
+      <c r="L88" s="35">
         <v>160</v>
       </c>
-      <c r="M88" s="29" t="s">
-        <v>276</v>
+      <c r="M88" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>3</v>
@@ -7136,19 +7339,19 @@
       <c r="P88" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q88" s="33" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q88" s="31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="26" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>29</v>
@@ -7156,29 +7359,29 @@
       <c r="E89" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F89" s="26" t="s">
+      <c r="F89" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I89" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="J89" s="13">
+      <c r="I89" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J89" s="11">
         <v>128.41</v>
       </c>
-      <c r="K89" s="23">
+      <c r="K89" s="21">
         <v>22.332173913043476</v>
       </c>
-      <c r="L89" s="37">
+      <c r="L89" s="35">
         <v>793</v>
       </c>
-      <c r="M89" s="29" t="s">
-        <v>291</v>
+      <c r="M89" s="27" t="s">
+        <v>289</v>
       </c>
       <c r="N89" s="4" t="s">
         <v>3</v>
@@ -7187,50 +7390,50 @@
         <v>2</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q89" s="33" t="s">
-        <v>60</v>
+        <v>389</v>
+      </c>
+      <c r="Q89" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D90" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="J90" s="13">
+      <c r="I90" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J90" s="11">
         <v>12.09</v>
       </c>
-      <c r="K90" s="23">
+      <c r="K90" s="21">
         <v>14.804081632653061</v>
       </c>
-      <c r="L90" s="37">
+      <c r="L90" s="35">
         <v>75</v>
       </c>
-      <c r="M90" s="29">
+      <c r="M90" s="27">
         <v>0</v>
       </c>
       <c r="N90" s="4" t="s">
@@ -7242,16 +7445,16 @@
       <c r="P90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q90" s="33" t="s">
+      <c r="Q90" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>17</v>
@@ -7260,30 +7463,30 @@
         <v>29</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F91" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J91" s="13">
+      <c r="I91" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J91" s="11">
         <v>10.17</v>
       </c>
-      <c r="K91" s="23">
+      <c r="K91" s="21">
         <v>17.947058823529414</v>
       </c>
-      <c r="L91" s="37">
+      <c r="L91" s="35">
         <v>44</v>
       </c>
-      <c r="M91" s="29">
+      <c r="M91" s="27">
         <v>0</v>
       </c>
       <c r="N91" s="4" t="s">
@@ -7295,49 +7498,49 @@
       <c r="P91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="33" t="s">
+      <c r="Q91" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F92" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="F92" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I92" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="J92" s="13">
+      <c r="I92" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J92" s="11">
         <v>37.76</v>
       </c>
-      <c r="K92" s="23">
+      <c r="K92" s="21">
         <v>21.784615384615382</v>
       </c>
-      <c r="L92" s="37">
+      <c r="L92" s="35">
         <v>198</v>
       </c>
-      <c r="M92" s="29" t="s">
-        <v>289</v>
+      <c r="M92" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="N92" s="4" t="s">
         <v>3</v>
@@ -7348,48 +7551,48 @@
       <c r="P92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q92" s="33" t="s">
-        <v>62</v>
+      <c r="Q92" s="31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="J93" s="13">
+      <c r="I93" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J93" s="11">
         <v>11.52</v>
       </c>
-      <c r="K93" s="23">
+      <c r="K93" s="21">
         <v>14.106122448979592</v>
       </c>
-      <c r="L93" s="37">
+      <c r="L93" s="35">
         <v>76</v>
       </c>
-      <c r="M93" s="29">
+      <c r="M93" s="27">
         <v>0</v>
       </c>
       <c r="N93" s="4" t="s">
@@ -7401,48 +7604,48 @@
       <c r="P93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q93" s="33" t="s">
+      <c r="Q93" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E94" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J94" s="13">
+      <c r="I94" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J94" s="11">
         <v>10.41</v>
       </c>
-      <c r="K94" s="23">
+      <c r="K94" s="21">
         <v>16.015384615384615</v>
       </c>
-      <c r="L94" s="37">
+      <c r="L94" s="35">
         <v>44</v>
       </c>
-      <c r="M94" s="29">
+      <c r="M94" s="27">
         <v>0</v>
       </c>
       <c r="N94" s="4" t="s">
@@ -7454,72 +7657,72 @@
       <c r="P94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="26" x14ac:dyDescent="0.15">
-      <c r="A95" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="4" t="s">
+      <c r="Q94" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A95" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F95" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="J95" s="13">
+      <c r="F95" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J95" s="20">
         <v>11.47</v>
       </c>
-      <c r="K95" s="23">
+      <c r="K95" s="38">
         <v>13.763999999999999</v>
       </c>
       <c r="L95" s="37">
         <v>69</v>
       </c>
-      <c r="M95" s="29">
-        <v>0</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O95" s="7">
+      <c r="M95" s="28">
+        <v>0</v>
+      </c>
+      <c r="N95" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O95" s="41">
         <v>1</v>
       </c>
-      <c r="P95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q95" s="33" t="s">
-        <v>63</v>
+      <c r="P95" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q95" s="34" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>29</v>
@@ -7527,29 +7730,29 @@
       <c r="E96" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F96" s="26" t="s">
-        <v>323</v>
+      <c r="F96" s="24" t="s">
+        <v>321</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I96" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="J96" s="13">
+      <c r="I96" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J96" s="11">
         <v>41.05</v>
       </c>
-      <c r="K96" s="23">
+      <c r="K96" s="21">
         <v>22.596330275229356</v>
       </c>
-      <c r="L96" s="37">
+      <c r="L96" s="35">
         <v>253</v>
       </c>
-      <c r="M96" s="29" t="s">
-        <v>292</v>
+      <c r="M96" s="27" t="s">
+        <v>290</v>
       </c>
       <c r="N96" s="4" t="s">
         <v>3</v>
@@ -7558,103 +7761,103 @@
         <v>0</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q96" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q96" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H97" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J97" s="22">
+      <c r="F97" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J97" s="20">
         <v>51.48</v>
       </c>
-      <c r="K97" s="23">
+      <c r="K97" s="21">
         <v>23.76</v>
       </c>
-      <c r="L97" s="39">
+      <c r="L97" s="37">
         <v>306</v>
       </c>
-      <c r="M97" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="N97" s="19" t="s">
+      <c r="M97" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="N97" s="17" t="s">
         <v>3</v>
       </c>
       <c r="O97" s="7">
         <v>0</v>
       </c>
-      <c r="P97" s="19" t="s">
+      <c r="P97" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q97" s="36" t="s">
+      <c r="Q97" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J98" s="13">
+      <c r="I98" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J98" s="11">
         <v>12.69</v>
       </c>
-      <c r="K98" s="23">
+      <c r="K98" s="21">
         <v>20.578378378378378</v>
       </c>
-      <c r="L98" s="37">
+      <c r="L98" s="35">
         <v>74</v>
       </c>
-      <c r="M98" s="29">
+      <c r="M98" s="27">
         <v>0</v>
       </c>
       <c r="N98" s="4" t="s">
@@ -7666,16 +7869,16 @@
       <c r="P98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q98" s="33" t="s">
+      <c r="Q98" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>17</v>
@@ -7684,30 +7887,30 @@
         <v>29</v>
       </c>
       <c r="E99" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F99" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="J99" s="13">
+      <c r="I99" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J99" s="11">
         <v>10.31</v>
       </c>
-      <c r="K99" s="23">
+      <c r="K99" s="21">
         <v>18.745454545454546</v>
       </c>
-      <c r="L99" s="37">
+      <c r="L99" s="35">
         <v>45</v>
       </c>
-      <c r="M99" s="29">
+      <c r="M99" s="27">
         <v>0</v>
       </c>
       <c r="N99" s="4" t="s">
@@ -7719,48 +7922,48 @@
       <c r="P99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q99" s="33" t="s">
+      <c r="Q99" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J100" s="13">
+      <c r="I100" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J100" s="11">
         <v>11.65</v>
       </c>
-      <c r="K100" s="23">
+      <c r="K100" s="21">
         <v>18.891891891891891</v>
       </c>
-      <c r="L100" s="37">
+      <c r="L100" s="35">
         <v>74</v>
       </c>
-      <c r="M100" s="29">
+      <c r="M100" s="27">
         <v>0</v>
       </c>
       <c r="N100" s="4" t="s">
@@ -7772,16 +7975,16 @@
       <c r="P100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="33" t="s">
+      <c r="Q100" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>17</v>
@@ -7790,30 +7993,30 @@
         <v>29</v>
       </c>
       <c r="E101" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F101" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="J101" s="13">
+      <c r="I101" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J101" s="11">
         <v>10.23</v>
       </c>
-      <c r="K101" s="23">
+      <c r="K101" s="21">
         <v>17.537142857142857</v>
       </c>
-      <c r="L101" s="37">
+      <c r="L101" s="35">
         <v>45</v>
       </c>
-      <c r="M101" s="29">
+      <c r="M101" s="27">
         <v>0</v>
       </c>
       <c r="N101" s="4" t="s">
@@ -7825,49 +8028,49 @@
       <c r="P101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q101" s="33" t="s">
+      <c r="Q101" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F102" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="F102" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I102" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J102" s="13">
+      <c r="I102" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J102" s="11">
         <v>37.200000000000003</v>
       </c>
-      <c r="K102" s="23">
+      <c r="K102" s="21">
         <v>21.66990291262136</v>
       </c>
-      <c r="L102" s="37">
+      <c r="L102" s="35">
         <v>184</v>
       </c>
-      <c r="M102" s="29" t="s">
-        <v>294</v>
+      <c r="M102" s="27" t="s">
+        <v>292</v>
       </c>
       <c r="N102" s="4" t="s">
         <v>3</v>
@@ -7878,19 +8081,19 @@
       <c r="P102" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q102" s="33" t="s">
+      <c r="Q102" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>29</v>
@@ -7898,29 +8101,29 @@
       <c r="E103" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F103" s="26" t="s">
+      <c r="F103" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I103" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J103" s="13">
+      <c r="I103" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J103" s="11">
         <v>48.58</v>
       </c>
-      <c r="K103" s="23">
+      <c r="K103" s="21">
         <v>22.771874999999998</v>
       </c>
-      <c r="L103" s="37">
+      <c r="L103" s="35">
         <v>278</v>
       </c>
-      <c r="M103" s="29" t="s">
-        <v>295</v>
+      <c r="M103" s="27" t="s">
+        <v>293</v>
       </c>
       <c r="N103" s="4" t="s">
         <v>3</v>
@@ -7931,48 +8134,48 @@
       <c r="P103" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q103" s="33" t="s">
+      <c r="Q103" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C104" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="H104" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J104" s="13">
+      <c r="I104" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J104" s="11">
         <v>12.9</v>
       </c>
-      <c r="K104" s="23">
+      <c r="K104" s="21">
         <v>16.468085106382979</v>
       </c>
-      <c r="L104" s="37">
+      <c r="L104" s="35">
         <v>74</v>
       </c>
-      <c r="M104" s="29">
+      <c r="M104" s="27">
         <v>0</v>
       </c>
       <c r="N104" s="4" t="s">
@@ -7984,16 +8187,16 @@
       <c r="P104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q104" s="33" t="s">
+      <c r="Q104" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A105" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>27</v>
@@ -8002,30 +8205,30 @@
         <v>29</v>
       </c>
       <c r="E105" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H105" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F105" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J105" s="13">
+      <c r="I105" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J105" s="11">
         <v>10.42</v>
       </c>
-      <c r="K105" s="23">
+      <c r="K105" s="21">
         <v>19.537500000000001</v>
       </c>
-      <c r="L105" s="37">
+      <c r="L105" s="35">
         <v>45</v>
       </c>
-      <c r="M105" s="29">
+      <c r="M105" s="27">
         <v>0</v>
       </c>
       <c r="N105" s="4" t="s">
@@ -8037,277 +8240,1862 @@
       <c r="P105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q105" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="B106" s="17" t="s">
+      <c r="Q105" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A106" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J106" s="20">
+        <v>42.62</v>
+      </c>
+      <c r="K106" s="38">
+        <v>19.823255813953487</v>
+      </c>
+      <c r="L106" s="37">
+        <v>219</v>
+      </c>
+      <c r="M106" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="N106" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O106" s="41">
+        <v>0</v>
+      </c>
+      <c r="P106" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q106" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A107" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" t="s">
+        <v>325</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" t="s">
+        <v>272</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H107" s="19" t="str">
+        <f>IF(G107 = "workout","roundtrip","oneway")</f>
+        <v>roundtrip</v>
+      </c>
+      <c r="I107" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="J107" s="42">
+        <v>38.65</v>
+      </c>
+      <c r="K107" s="43">
+        <v>22.514563106796114</v>
+      </c>
+      <c r="L107" s="42">
+        <v>182</v>
+      </c>
+      <c r="M107" s="22">
+        <v>0</v>
+      </c>
+      <c r="N107" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O107" s="23">
+        <v>0</v>
+      </c>
+      <c r="P107" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q107" s="19"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A108" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="B108" t="s">
         <v>192</v>
       </c>
-      <c r="C106" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E106" s="19" t="s">
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>126</v>
+      </c>
+      <c r="H108" s="19" t="str">
+        <f t="shared" ref="H108:H141" si="0">IF(G108 = "workout","roundtrip","oneway")</f>
+        <v>oneway</v>
+      </c>
+      <c r="I108" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="J108" s="42">
+        <v>11.57</v>
+      </c>
+      <c r="K108" s="43">
+        <v>16.931707317073172</v>
+      </c>
+      <c r="L108" s="42">
+        <v>77</v>
+      </c>
+      <c r="M108" s="22">
+        <v>0</v>
+      </c>
+      <c r="N108" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O108" s="23">
+        <v>0</v>
+      </c>
+      <c r="P108" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q108" s="19"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A109" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" t="s">
+        <v>326</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" t="s">
+        <v>56</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>126</v>
+      </c>
+      <c r="H109" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I109" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="J109" s="42">
+        <v>10.06</v>
+      </c>
+      <c r="K109" s="43">
+        <v>19.470967741935482</v>
+      </c>
+      <c r="L109" s="42">
+        <v>45</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A110" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
+        <v>327</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" t="s">
+        <v>272</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>322</v>
+      </c>
+      <c r="H110" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>roundtrip</v>
+      </c>
+      <c r="I110" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="J110" s="42">
+        <v>38.78</v>
+      </c>
+      <c r="K110" s="43">
+        <v>23.268000000000004</v>
+      </c>
+      <c r="L110" s="42">
+        <v>197</v>
+      </c>
+      <c r="M110" t="s">
+        <v>377</v>
+      </c>
+      <c r="N110" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B111" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" t="s">
+        <v>328</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" t="s">
+        <v>373</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>322</v>
+      </c>
+      <c r="H111" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>roundtrip</v>
+      </c>
+      <c r="I111" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="J111" s="42">
+        <v>36.6</v>
+      </c>
+      <c r="K111" s="43">
+        <v>23.11578947368421</v>
+      </c>
+      <c r="L111" s="42">
+        <v>191</v>
+      </c>
+      <c r="M111" t="s">
+        <v>384</v>
+      </c>
+      <c r="N111" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A112" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B112" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>126</v>
+      </c>
+      <c r="H112" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I112" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="J112" s="42">
+        <v>12.3</v>
+      </c>
+      <c r="K112" s="43">
+        <v>18.923076923076923</v>
+      </c>
+      <c r="L112" s="42">
+        <v>74</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A113" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" t="s">
+        <v>346</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>126</v>
+      </c>
+      <c r="H113" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I113" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="J113" s="42">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="K113" s="43">
+        <v>17.735294117647062</v>
+      </c>
+      <c r="L113" s="42">
+        <v>44</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A114" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" t="s">
+        <v>326</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" t="s">
+        <v>272</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G114" t="s">
+        <v>322</v>
+      </c>
+      <c r="H114" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>roundtrip</v>
+      </c>
+      <c r="I114" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="J114" s="42">
+        <v>40.33</v>
+      </c>
+      <c r="K114" s="43">
+        <v>23.267307692307689</v>
+      </c>
+      <c r="L114" s="42">
+        <v>194</v>
+      </c>
+      <c r="M114" t="s">
+        <v>378</v>
+      </c>
+      <c r="N114" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A115" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="B115" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>56</v>
+      </c>
+      <c r="E115" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>126</v>
+      </c>
+      <c r="H115" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I115" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="J115" s="42">
+        <v>11.65</v>
+      </c>
+      <c r="K115" s="43">
+        <v>17.475000000000001</v>
+      </c>
+      <c r="L115" s="42">
+        <v>77</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A116" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="B116" t="s">
+        <v>191</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" t="s">
+        <v>56</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>126</v>
+      </c>
+      <c r="H116" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I116" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="J116" s="42">
+        <v>10.44</v>
+      </c>
+      <c r="K116" s="43">
+        <v>19.574999999999999</v>
+      </c>
+      <c r="L116" s="42">
+        <v>44</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="B117" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H106" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I106" s="22" t="s">
+      <c r="F117" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G117" t="s">
+        <v>322</v>
+      </c>
+      <c r="H117" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>roundtrip</v>
+      </c>
+      <c r="I117" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J117" s="42">
+        <v>41.7</v>
+      </c>
+      <c r="K117" s="43">
+        <v>24.772277227722775</v>
+      </c>
+      <c r="L117" s="42">
+        <v>244</v>
+      </c>
+      <c r="M117" t="s">
+        <v>383</v>
+      </c>
+      <c r="N117" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A118" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="B118" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>56</v>
+      </c>
+      <c r="E118" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>126</v>
+      </c>
+      <c r="H118" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I118" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J118" s="42">
+        <v>11.95</v>
+      </c>
+      <c r="K118" s="43">
+        <v>18.868421052631579</v>
+      </c>
+      <c r="L118" s="42">
+        <v>75</v>
+      </c>
+      <c r="M118" t="s">
+        <v>379</v>
+      </c>
+      <c r="N118" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A119" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="B119" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>126</v>
+      </c>
+      <c r="H119" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I119" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J119" s="42">
+        <v>11.24</v>
+      </c>
+      <c r="K119" s="43">
+        <v>20.436363636363634</v>
+      </c>
+      <c r="L119" s="42">
+        <v>45</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A120" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="B120" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" t="s">
+        <v>331</v>
+      </c>
+      <c r="D120" t="s">
+        <v>56</v>
+      </c>
+      <c r="E120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>126</v>
+      </c>
+      <c r="H120" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I120" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J120" s="42">
+        <v>11.8</v>
+      </c>
+      <c r="K120" s="43">
+        <v>16.090909090909093</v>
+      </c>
+      <c r="L120" s="42">
+        <v>80</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A121" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="B121" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" t="s">
+        <v>332</v>
+      </c>
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" t="s">
+        <v>56</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
+      </c>
+      <c r="H121" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I121" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J121" s="42">
+        <v>11.44</v>
+      </c>
+      <c r="K121" s="43">
+        <v>28.599999999999998</v>
+      </c>
+      <c r="L121" s="42">
+        <v>44</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>360</v>
+      </c>
+      <c r="B122" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" t="s">
+        <v>328</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>322</v>
+      </c>
+      <c r="H122" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>roundtrip</v>
+      </c>
+      <c r="I122" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J122" s="42">
+        <v>37</v>
+      </c>
+      <c r="K122" s="44">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="L122" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
+        <v>10</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>361</v>
+      </c>
+      <c r="B123" t="s">
+        <v>191</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E123" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>126</v>
+      </c>
+      <c r="H123" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I123" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="J123" s="42">
+        <v>11.66</v>
+      </c>
+      <c r="K123" s="44">
+        <v>21.862500000000001</v>
+      </c>
+      <c r="L123" s="45">
+        <v>75</v>
+      </c>
+      <c r="M123" t="s">
+        <v>275</v>
+      </c>
+      <c r="N123" t="s">
+        <v>3</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>361</v>
+      </c>
+      <c r="B124" t="s">
+        <v>191</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" t="s">
+        <v>56</v>
+      </c>
+      <c r="F124" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>126</v>
+      </c>
+      <c r="H124" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I124" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J124" s="42">
+        <v>10.28</v>
+      </c>
+      <c r="K124" s="44">
+        <v>18.690909090909088</v>
+      </c>
+      <c r="L124" s="45">
+        <v>45</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
+        <v>3</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>362</v>
+      </c>
+      <c r="B125" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" t="s">
+        <v>56</v>
+      </c>
+      <c r="E125" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>126</v>
+      </c>
+      <c r="H125" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I125" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="J125" s="42">
+        <v>11.77</v>
+      </c>
+      <c r="K125" s="44">
+        <v>19.616666666666667</v>
+      </c>
+      <c r="L125" s="45">
+        <v>76</v>
+      </c>
+      <c r="M125" t="s">
+        <v>277</v>
+      </c>
+      <c r="N125" t="s">
+        <v>3</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>362</v>
+      </c>
+      <c r="B126" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" t="s">
+        <v>347</v>
+      </c>
+      <c r="D126" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s">
+        <v>56</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>126</v>
+      </c>
+      <c r="H126" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I126" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="J126" s="42">
+        <v>10.38</v>
+      </c>
+      <c r="K126" s="44">
+        <v>20.76</v>
+      </c>
+      <c r="L126" s="45">
+        <v>44</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
+        <v>3</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>363</v>
+      </c>
+      <c r="B127" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127" t="s">
+        <v>348</v>
+      </c>
+      <c r="D127" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" t="s">
+        <v>374</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G127" t="s">
+        <v>322</v>
+      </c>
+      <c r="H127" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>roundtrip</v>
+      </c>
+      <c r="I127" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J127" s="42">
+        <v>35.22</v>
+      </c>
+      <c r="K127" s="44">
+        <v>22.012499999999999</v>
+      </c>
+      <c r="L127" s="45">
+        <v>199</v>
+      </c>
+      <c r="M127" t="s">
+        <v>382</v>
+      </c>
+      <c r="N127" t="s">
+        <v>3</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>364</v>
+      </c>
+      <c r="B128" t="s">
+        <v>195</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>126</v>
+      </c>
+      <c r="H128" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I128" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="J128" s="42">
+        <v>10.27</v>
+      </c>
+      <c r="K128" s="44">
+        <v>18.123529411764707</v>
+      </c>
+      <c r="L128" s="45">
+        <v>72</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
+        <v>3</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>364</v>
+      </c>
+      <c r="B129" t="s">
+        <v>195</v>
+      </c>
+      <c r="C129" t="s">
+        <v>349</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" t="s">
+        <v>56</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>126</v>
+      </c>
+      <c r="H129" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I129" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="J129" s="42">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K129" s="44">
+        <v>17</v>
+      </c>
+      <c r="L129" s="45">
+        <v>45</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
+        <v>3</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>365</v>
+      </c>
+      <c r="B130" t="s">
+        <v>193</v>
+      </c>
+      <c r="C130" t="s">
+        <v>350</v>
+      </c>
+      <c r="D130" t="s">
+        <v>56</v>
+      </c>
+      <c r="E130" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>126</v>
+      </c>
+      <c r="H130" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I130" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="J106" s="22">
-        <v>42.62</v>
-      </c>
-      <c r="K106" s="40">
-        <v>19.823255813953487</v>
-      </c>
-      <c r="L106" s="39">
-        <v>219</v>
-      </c>
-      <c r="M106" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="N106" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O106" s="43">
-        <v>0</v>
-      </c>
-      <c r="P106" s="19" t="s">
+      <c r="J130" s="42">
+        <v>11.65</v>
+      </c>
+      <c r="K130" s="44">
+        <v>18.891891891891891</v>
+      </c>
+      <c r="L130" s="45">
+        <v>75</v>
+      </c>
+      <c r="M130" t="s">
+        <v>277</v>
+      </c>
+      <c r="N130" t="s">
+        <v>3</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>365</v>
+      </c>
+      <c r="B131" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" t="s">
+        <v>56</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>126</v>
+      </c>
+      <c r="H131" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I131" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="J131" s="42">
+        <v>10.09</v>
+      </c>
+      <c r="K131" s="44">
+        <v>17.297142857142855</v>
+      </c>
+      <c r="L131" s="45">
+        <v>45</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
+        <v>3</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>366</v>
+      </c>
+      <c r="B132" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" t="s">
+        <v>351</v>
+      </c>
+      <c r="D132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" t="s">
+        <v>373</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G132" t="s">
+        <v>322</v>
+      </c>
+      <c r="H132" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>roundtrip</v>
+      </c>
+      <c r="I132" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="J132" s="42">
+        <v>34.53</v>
+      </c>
+      <c r="K132" s="44">
+        <v>24.090697674418607</v>
+      </c>
+      <c r="L132" s="45">
+        <v>185</v>
+      </c>
+      <c r="M132" t="s">
+        <v>381</v>
+      </c>
+      <c r="N132" t="s">
+        <v>3</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132" t="s">
         <v>48</v>
       </c>
-      <c r="Q106" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="21"/>
-      <c r="O107" s="25"/>
-      <c r="P107" s="21"/>
-      <c r="Q107" s="21"/>
-    </row>
-    <row r="108" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="21"/>
-      <c r="O108" s="25"/>
-      <c r="P108" s="21"/>
-      <c r="Q108" s="21"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
-      <c r="L117" s="10"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
-      <c r="L120" s="10"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
-      <c r="L122" s="10"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="10"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>367</v>
+      </c>
+      <c r="B133" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>56</v>
+      </c>
+      <c r="E133" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>126</v>
+      </c>
+      <c r="H133" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I133" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J133" s="42">
+        <v>15.14</v>
+      </c>
+      <c r="K133" s="44">
+        <v>17.469230769230769</v>
+      </c>
+      <c r="L133" s="45">
+        <v>93</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
+        <v>3</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>367</v>
+      </c>
+      <c r="B134" t="s">
+        <v>194</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" t="s">
+        <v>56</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" t="s">
+        <v>126</v>
+      </c>
+      <c r="H134" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I134" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="J134" s="42">
+        <v>10.5</v>
+      </c>
+      <c r="K134" s="44">
+        <v>18</v>
+      </c>
+      <c r="L134" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
+        <v>10</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>368</v>
+      </c>
+      <c r="B135" t="s">
+        <v>190</v>
+      </c>
+      <c r="C135" t="s">
+        <v>352</v>
+      </c>
+      <c r="D135" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" t="s">
+        <v>316</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" t="s">
+        <v>322</v>
+      </c>
+      <c r="H135" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>roundtrip</v>
+      </c>
+      <c r="I135" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="J135" s="42">
+        <v>106.51</v>
+      </c>
+      <c r="K135" s="44">
+        <v>22.661702127659574</v>
+      </c>
+      <c r="L135" s="45">
+        <v>672</v>
+      </c>
+      <c r="M135" t="s">
+        <v>380</v>
+      </c>
+      <c r="N135" t="s">
+        <v>3</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>369</v>
+      </c>
+      <c r="B136" t="s">
+        <v>193</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>56</v>
+      </c>
+      <c r="E136" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>126</v>
+      </c>
+      <c r="H136" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I136" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="J136" s="42">
+        <v>10.93</v>
+      </c>
+      <c r="K136" s="44">
+        <v>16.815384615384616</v>
+      </c>
+      <c r="L136" s="45">
+        <v>79</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136" t="s">
+        <v>3</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>369</v>
+      </c>
+      <c r="B137" t="s">
+        <v>193</v>
+      </c>
+      <c r="C137" t="s">
+        <v>326</v>
+      </c>
+      <c r="D137" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" t="s">
+        <v>56</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>126</v>
+      </c>
+      <c r="H137" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I137" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="J137" s="42">
+        <v>10.18</v>
+      </c>
+      <c r="K137" s="44">
+        <v>17.964705882352941</v>
+      </c>
+      <c r="L137" s="45">
+        <v>44</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
+        <v>3</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>370</v>
+      </c>
+      <c r="B138" t="s">
+        <v>189</v>
+      </c>
+      <c r="C138" t="s">
+        <v>353</v>
+      </c>
+      <c r="D138" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" t="s">
+        <v>375</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" t="s">
+        <v>126</v>
+      </c>
+      <c r="H138" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I138" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J138" s="42">
+        <v>8.99</v>
+      </c>
+      <c r="K138" s="44">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L138" s="45">
+        <v>52</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138" t="s">
+        <v>3</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>371</v>
+      </c>
+      <c r="B139" t="s">
+        <v>193</v>
+      </c>
+      <c r="C139" t="s">
+        <v>354</v>
+      </c>
+      <c r="D139" t="s">
+        <v>56</v>
+      </c>
+      <c r="E139" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>126</v>
+      </c>
+      <c r="H139" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I139" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J139" s="42">
+        <v>11.22</v>
+      </c>
+      <c r="K139" s="44">
+        <v>15.300000000000002</v>
+      </c>
+      <c r="L139" s="45">
+        <v>78</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139" t="s">
+        <v>3</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>371</v>
+      </c>
+      <c r="B140" t="s">
+        <v>193</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" t="s">
+        <v>56</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>126</v>
+      </c>
+      <c r="H140" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>oneway</v>
+      </c>
+      <c r="I140" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J140" s="42">
+        <v>10.71</v>
+      </c>
+      <c r="K140" s="44">
+        <v>19.472727272727273</v>
+      </c>
+      <c r="L140" s="45">
+        <v>44</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140" t="s">
+        <v>3</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>372</v>
+      </c>
+      <c r="B141" t="s">
+        <v>190</v>
+      </c>
+      <c r="C141" t="s">
+        <v>326</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" t="s">
+        <v>373</v>
+      </c>
+      <c r="F141" t="s">
+        <v>387</v>
+      </c>
+      <c r="G141" t="s">
+        <v>322</v>
+      </c>
+      <c r="H141" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>roundtrip</v>
+      </c>
+      <c r="I141" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="J141" s="42">
+        <v>33.54</v>
+      </c>
+      <c r="K141" s="44">
+        <v>23.131034482758622</v>
+      </c>
+      <c r="L141" s="45">
+        <v>201</v>
+      </c>
+      <c r="M141" t="s">
+        <v>385</v>
+      </c>
+      <c r="N141" t="s">
+        <v>3</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K142" s="45"/>
+      <c r="L142" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
